--- a/src/output/results8.xlsx
+++ b/src/output/results8.xlsx
@@ -346,2143 +346,2143 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5089.0</v>
+        <v>2972.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1183.0</v>
+        <v>1141.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5020.0</v>
+        <v>3673.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1181.0</v>
+        <v>1155.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4485.0</v>
+        <v>3319.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1418.0</v>
+        <v>1188.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3904.0</v>
+        <v>3132.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1927.0</v>
+        <v>1276.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3685.0</v>
+        <v>2858.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1975.0</v>
+        <v>1340.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3360.0</v>
+        <v>3606.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1811.0</v>
+        <v>1239.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3193.0</v>
+        <v>3238.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1610.0</v>
+        <v>1230.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3067.0</v>
+        <v>2446.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1617.0</v>
+        <v>1223.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2885.0</v>
+        <v>2382.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1414.0</v>
+        <v>1189.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2798.0</v>
+        <v>2386.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1439.0</v>
+        <v>1219.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2781.0</v>
+        <v>2327.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1353.0</v>
+        <v>1050.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2755.0</v>
+        <v>2374.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1214.0</v>
+        <v>992.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2660.0</v>
+        <v>2684.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1202.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2651.0</v>
+        <v>2688.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1162.0</v>
+        <v>979.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2570.0</v>
+        <v>2286.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1174.0</v>
+        <v>984.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2584.0</v>
+        <v>2265.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1179.0</v>
+        <v>1071.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2537.0</v>
+        <v>2275.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1174.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2586.0</v>
+        <v>2279.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1140.0</v>
+        <v>919.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2615.0</v>
+        <v>2157.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1108.0</v>
+        <v>904.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2652.0</v>
+        <v>2760.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1109.0</v>
+        <v>911.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2546.0</v>
+        <v>2572.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1134.0</v>
+        <v>870.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2588.0</v>
+        <v>2215.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1063.0</v>
+        <v>905.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2494.0</v>
+        <v>2248.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1073.0</v>
+        <v>978.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2524.0</v>
+        <v>2286.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1049.0</v>
+        <v>992.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2507.0</v>
+        <v>2344.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1091.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2603.0</v>
+        <v>2311.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1042.0</v>
+        <v>865.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2569.0</v>
+        <v>2697.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1045.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2537.0</v>
+        <v>2592.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1088.0</v>
+        <v>913.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2616.0</v>
+        <v>2396.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1064.0</v>
+        <v>945.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2539.0</v>
+        <v>2258.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1105.0</v>
+        <v>1033.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2558.0</v>
+        <v>2328.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1125.0</v>
+        <v>1004.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3313.0</v>
+        <v>3215.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1103.0</v>
+        <v>1035.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3320.0</v>
+        <v>3221.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1004.0</v>
+        <v>967.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3152.0</v>
+        <v>3410.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1162.0</v>
+        <v>1076.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2970.0</v>
+        <v>3399.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1330.0</v>
+        <v>1202.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4312.0</v>
+        <v>4429.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1439.0</v>
+        <v>1259.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4275.0</v>
+        <v>4288.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1353.0</v>
+        <v>1378.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4620.0</v>
+        <v>5051.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1533.0</v>
+        <v>1588.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5345.0</v>
+        <v>5432.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1739.0</v>
+        <v>1756.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5727.0</v>
+        <v>6059.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1934.0</v>
+        <v>2057.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5354.0</v>
+        <v>6506.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2124.0</v>
+        <v>2243.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4881.0</v>
+        <v>6355.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2204.0</v>
+        <v>2326.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7027.0</v>
+        <v>7364.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2431.0</v>
+        <v>2603.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6465.0</v>
+        <v>7049.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2404.0</v>
+        <v>2703.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7133.0</v>
+        <v>7783.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2537.0</v>
+        <v>2948.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7806.0</v>
+        <v>8563.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2920.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8290.0</v>
+        <v>9041.0</v>
       </c>
       <c r="B47" t="n">
-        <v>3000.0</v>
+        <v>3181.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7545.0</v>
+        <v>9627.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3144.0</v>
+        <v>3569.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7147.0</v>
+        <v>9864.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3382.0</v>
+        <v>3735.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9614.0</v>
+        <v>10773.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3595.0</v>
+        <v>3964.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9028.0</v>
+        <v>10001.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3462.0</v>
+        <v>4140.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9506.0</v>
+        <v>10792.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3718.0</v>
+        <v>4368.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10626.0</v>
+        <v>11651.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3989.0</v>
+        <v>4401.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11179.0</v>
+        <v>12433.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4075.0</v>
+        <v>4519.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9571.0</v>
+        <v>13038.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4240.0</v>
+        <v>4969.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9350.0</v>
+        <v>13374.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4595.0</v>
+        <v>5226.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12688.0</v>
+        <v>14042.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4901.0</v>
+        <v>5419.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11421.0</v>
+        <v>12807.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4640.0</v>
+        <v>5574.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11948.0</v>
+        <v>13647.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4834.0</v>
+        <v>5816.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12718.0</v>
+        <v>14720.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5335.0</v>
+        <v>5915.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13722.0</v>
+        <v>15604.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5102.0</v>
+        <v>5978.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11939.0</v>
+        <v>16719.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5506.0</v>
+        <v>6369.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10947.0</v>
+        <v>16780.0</v>
       </c>
       <c r="B63" t="n">
-        <v>5840.0</v>
+        <v>6669.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15182.0</v>
+        <v>17191.0</v>
       </c>
       <c r="B64" t="n">
-        <v>6049.0</v>
+        <v>6804.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13471.0</v>
+        <v>15643.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5646.0</v>
+        <v>7035.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>13982.0</v>
+        <v>16426.0</v>
       </c>
       <c r="B66" t="n">
-        <v>5680.0</v>
+        <v>7132.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15165.0</v>
+        <v>17452.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6287.0</v>
+        <v>7251.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15587.0</v>
+        <v>18310.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6071.0</v>
+        <v>7464.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13447.0</v>
+        <v>19306.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6270.0</v>
+        <v>7435.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12409.0</v>
+        <v>19978.0</v>
       </c>
       <c r="B70" t="n">
-        <v>6679.0</v>
+        <v>7885.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17147.0</v>
+        <v>19343.0</v>
       </c>
       <c r="B71" t="n">
-        <v>6968.0</v>
+        <v>8110.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14865.0</v>
+        <v>17742.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6542.0</v>
+        <v>8170.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15420.0</v>
+        <v>18810.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6734.0</v>
+        <v>8442.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16466.0</v>
+        <v>19521.0</v>
       </c>
       <c r="B74" t="n">
-        <v>7108.0</v>
+        <v>8422.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>16883.0</v>
+        <v>20099.0</v>
       </c>
       <c r="B75" t="n">
-        <v>6869.0</v>
+        <v>8090.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14337.0</v>
+        <v>21543.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7038.0</v>
+        <v>8613.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13356.0</v>
+        <v>21809.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7451.0</v>
+        <v>8900.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18189.0</v>
+        <v>21010.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7566.0</v>
+        <v>9016.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>15981.0</v>
+        <v>19040.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7032.0</v>
+        <v>8948.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16278.0</v>
+        <v>19457.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7124.0</v>
+        <v>9242.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17100.0</v>
+        <v>20278.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7683.0</v>
+        <v>9080.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17587.0</v>
+        <v>20947.0</v>
       </c>
       <c r="B82" t="n">
-        <v>7469.0</v>
+        <v>8940.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15078.0</v>
+        <v>21903.0</v>
       </c>
       <c r="B83" t="n">
-        <v>7496.0</v>
+        <v>8916.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13585.0</v>
+        <v>22157.0</v>
       </c>
       <c r="B84" t="n">
-        <v>7857.0</v>
+        <v>9130.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18382.0</v>
+        <v>21334.0</v>
       </c>
       <c r="B85" t="n">
-        <v>7940.0</v>
+        <v>9362.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16095.0</v>
+        <v>18810.0</v>
       </c>
       <c r="B86" t="n">
-        <v>7274.0</v>
+        <v>9123.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16588.0</v>
+        <v>19623.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7386.0</v>
+        <v>9355.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17091.0</v>
+        <v>20063.0</v>
       </c>
       <c r="B88" t="n">
-        <v>7686.0</v>
+        <v>8926.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17564.0</v>
+        <v>20395.0</v>
       </c>
       <c r="B89" t="n">
-        <v>7419.0</v>
+        <v>8909.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14897.0</v>
+        <v>21662.0</v>
       </c>
       <c r="B90" t="n">
-        <v>7453.0</v>
+        <v>8803.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13565.0</v>
+        <v>21338.0</v>
       </c>
       <c r="B91" t="n">
-        <v>7956.0</v>
+        <v>8969.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>18356.0</v>
+        <v>20437.0</v>
       </c>
       <c r="B92" t="n">
-        <v>7979.0</v>
+        <v>8899.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>16100.0</v>
+        <v>18335.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7518.0</v>
+        <v>8983.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16432.0</v>
+        <v>18807.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7333.0</v>
+        <v>9033.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16637.0</v>
+        <v>19235.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7406.0</v>
+        <v>8702.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>17053.0</v>
+        <v>19519.0</v>
       </c>
       <c r="B96" t="n">
-        <v>7308.0</v>
+        <v>8437.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12172.0</v>
+        <v>20446.0</v>
       </c>
       <c r="B97" t="n">
-        <v>7257.0</v>
+        <v>8481.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>12965.0</v>
+        <v>19496.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7594.0</v>
+        <v>8644.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13761.0</v>
+        <v>14054.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7492.0</v>
+        <v>8377.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>12160.0</v>
+        <v>12898.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6915.0</v>
+        <v>8256.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11346.0</v>
+        <v>12510.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6361.0</v>
+        <v>7768.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11301.0</v>
+        <v>12092.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5980.0</v>
+        <v>6763.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10688.0</v>
+        <v>11604.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5553.0</v>
+        <v>5882.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9232.0</v>
+        <v>14342.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4993.0</v>
+        <v>5493.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8643.0</v>
+        <v>12619.0</v>
       </c>
       <c r="B105" t="n">
-        <v>5093.0</v>
+        <v>5212.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11356.0</v>
+        <v>12931.0</v>
       </c>
       <c r="B106" t="n">
-        <v>5005.0</v>
+        <v>5156.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10279.0</v>
+        <v>11440.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4775.0</v>
+        <v>5372.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10644.0</v>
+        <v>11864.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4604.0</v>
+        <v>5473.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11167.0</v>
+        <v>12414.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4829.0</v>
+        <v>5320.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>11790.0</v>
+        <v>12994.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4756.0</v>
+        <v>5203.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10170.0</v>
+        <v>13891.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4801.0</v>
+        <v>5301.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9497.0</v>
+        <v>13088.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5254.0</v>
+        <v>5535.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13691.0</v>
+        <v>14220.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5504.0</v>
+        <v>5650.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>12285.0</v>
+        <v>12802.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5280.0</v>
+        <v>5528.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12894.0</v>
+        <v>13050.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5348.0</v>
+        <v>5774.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13356.0</v>
+        <v>13657.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5405.0</v>
+        <v>5870.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14485.0</v>
+        <v>14193.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5696.0</v>
+        <v>5642.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>12581.0</v>
+        <v>14770.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5889.0</v>
+        <v>5848.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11728.0</v>
+        <v>14708.0</v>
       </c>
       <c r="B119" t="n">
-        <v>6328.0</v>
+        <v>6049.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16377.0</v>
+        <v>15285.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6521.0</v>
+        <v>6224.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>15031.0</v>
+        <v>13959.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6341.0</v>
+        <v>6225.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>15597.0</v>
+        <v>14312.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6571.0</v>
+        <v>6341.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16535.0</v>
+        <v>15192.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6508.0</v>
+        <v>6365.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17791.0</v>
+        <v>15598.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6962.0</v>
+        <v>6392.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>15501.0</v>
+        <v>16224.0</v>
       </c>
       <c r="B125" t="n">
-        <v>7297.0</v>
+        <v>6388.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>14172.0</v>
+        <v>16153.0</v>
       </c>
       <c r="B126" t="n">
-        <v>7832.0</v>
+        <v>6814.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>19877.0</v>
+        <v>16888.0</v>
       </c>
       <c r="B127" t="n">
-        <v>8018.0</v>
+        <v>6848.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>18217.0</v>
+        <v>15593.0</v>
       </c>
       <c r="B128" t="n">
-        <v>7946.0</v>
+        <v>6906.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>19241.0</v>
+        <v>16143.0</v>
       </c>
       <c r="B129" t="n">
-        <v>8047.0</v>
+        <v>7021.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>20354.0</v>
+        <v>16881.0</v>
       </c>
       <c r="B130" t="n">
-        <v>8170.0</v>
+        <v>7003.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>21984.0</v>
+        <v>17209.0</v>
       </c>
       <c r="B131" t="n">
-        <v>8540.0</v>
+        <v>7238.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>19388.0</v>
+        <v>18036.0</v>
       </c>
       <c r="B132" t="n">
-        <v>9060.0</v>
+        <v>7263.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17286.0</v>
+        <v>17987.0</v>
       </c>
       <c r="B133" t="n">
-        <v>9691.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>24403.0</v>
+        <v>18835.0</v>
       </c>
       <c r="B134" t="n">
-        <v>9857.0</v>
+        <v>7568.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>21950.0</v>
+        <v>17040.0</v>
       </c>
       <c r="B135" t="n">
-        <v>9786.0</v>
+        <v>7677.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>23158.0</v>
+        <v>17707.0</v>
       </c>
       <c r="B136" t="n">
-        <v>9586.0</v>
+        <v>7890.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>24372.0</v>
+        <v>18228.0</v>
       </c>
       <c r="B137" t="n">
-        <v>9851.0</v>
+        <v>7858.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>25824.0</v>
+        <v>18749.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10222.0</v>
+        <v>7845.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>22835.0</v>
+        <v>19555.0</v>
       </c>
       <c r="B139" t="n">
-        <v>11114.0</v>
+        <v>7999.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>20663.0</v>
+        <v>19616.0</v>
       </c>
       <c r="B140" t="n">
-        <v>11820.0</v>
+        <v>8283.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>28037.0</v>
+        <v>20273.0</v>
       </c>
       <c r="B141" t="n">
-        <v>11733.0</v>
+        <v>8500.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>24717.0</v>
+        <v>18399.0</v>
       </c>
       <c r="B142" t="n">
-        <v>11458.0</v>
+        <v>8554.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>26610.0</v>
+        <v>18806.0</v>
       </c>
       <c r="B143" t="n">
-        <v>11458.0</v>
+        <v>8531.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>27413.0</v>
+        <v>19733.0</v>
       </c>
       <c r="B144" t="n">
-        <v>11412.0</v>
+        <v>8583.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>29224.0</v>
+        <v>19988.0</v>
       </c>
       <c r="B145" t="n">
-        <v>12025.0</v>
+        <v>8505.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>25336.0</v>
+        <v>21165.0</v>
       </c>
       <c r="B146" t="n">
-        <v>12754.0</v>
+        <v>8778.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>22914.0</v>
+        <v>21458.0</v>
       </c>
       <c r="B147" t="n">
-        <v>13450.0</v>
+        <v>8932.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>30273.0</v>
+        <v>21527.0</v>
       </c>
       <c r="B148" t="n">
-        <v>13261.0</v>
+        <v>9018.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>26477.0</v>
+        <v>19832.0</v>
       </c>
       <c r="B149" t="n">
-        <v>12638.0</v>
+        <v>9274.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22377.0</v>
+        <v>15508.0</v>
       </c>
       <c r="B150" t="n">
-        <v>12362.0</v>
+        <v>9414.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22610.0</v>
+        <v>15690.0</v>
       </c>
       <c r="B151" t="n">
-        <v>11942.0</v>
+        <v>9103.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>22277.0</v>
+        <v>15485.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11598.0</v>
+        <v>8861.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17604.0</v>
+        <v>20485.0</v>
       </c>
       <c r="B153" t="n">
-        <v>11518.0</v>
+        <v>8509.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>17322.0</v>
+        <v>17720.0</v>
       </c>
       <c r="B154" t="n">
-        <v>11349.0</v>
+        <v>8054.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>14017.0</v>
+        <v>15143.0</v>
       </c>
       <c r="B155" t="n">
-        <v>10357.0</v>
+        <v>7640.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11218.0</v>
+        <v>12577.0</v>
       </c>
       <c r="B156" t="n">
-        <v>9048.0</v>
+        <v>7418.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14845.0</v>
+        <v>14497.0</v>
       </c>
       <c r="B157" t="n">
-        <v>7365.0</v>
+        <v>6950.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12462.0</v>
+        <v>12814.0</v>
       </c>
       <c r="B158" t="n">
-        <v>6525.0</v>
+        <v>6454.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10632.0</v>
+        <v>10409.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6426.0</v>
+        <v>6266.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8748.0</v>
+        <v>11153.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5889.0</v>
+        <v>6106.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9094.0</v>
+        <v>10991.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5925.0</v>
+        <v>5940.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11704.0</v>
+        <v>11205.0</v>
       </c>
       <c r="B162" t="n">
-        <v>6012.0</v>
+        <v>5705.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12838.0</v>
+        <v>13417.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5734.0</v>
+        <v>5410.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>12015.0</v>
+        <v>13107.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5116.0</v>
+        <v>5197.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12465.0</v>
+        <v>13844.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4645.0</v>
+        <v>5312.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>13552.0</v>
+        <v>14545.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4821.0</v>
+        <v>5409.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11787.0</v>
+        <v>16657.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5401.0</v>
+        <v>5974.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11561.0</v>
+        <v>15907.0</v>
       </c>
       <c r="B168" t="n">
-        <v>6046.0</v>
+        <v>6662.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16357.0</v>
+        <v>17718.0</v>
       </c>
       <c r="B169" t="n">
-        <v>6271.0</v>
+        <v>6963.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>15081.0</v>
+        <v>16680.0</v>
       </c>
       <c r="B170" t="n">
-        <v>6292.0</v>
+        <v>7309.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>15887.0</v>
+        <v>17519.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6264.0</v>
+        <v>7397.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16581.0</v>
+        <v>18240.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6092.0</v>
+        <v>7568.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>18383.0</v>
+        <v>19358.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6581.0</v>
+        <v>8216.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16496.0</v>
+        <v>22220.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7641.0</v>
+        <v>8662.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>14889.0</v>
+        <v>22466.0</v>
       </c>
       <c r="B175" t="n">
-        <v>8178.0</v>
+        <v>9122.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>20910.0</v>
+        <v>22092.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8035.0</v>
+        <v>9509.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>19362.0</v>
+        <v>20798.0</v>
       </c>
       <c r="B177" t="n">
-        <v>8136.0</v>
+        <v>9838.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>20440.0</v>
+        <v>21828.0</v>
       </c>
       <c r="B178" t="n">
-        <v>8314.0</v>
+        <v>9709.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>21711.0</v>
+        <v>23311.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8171.0</v>
+        <v>9946.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>23499.0</v>
+        <v>24761.0</v>
       </c>
       <c r="B180" t="n">
-        <v>8976.0</v>
+        <v>10644.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>21305.0</v>
+        <v>28072.0</v>
       </c>
       <c r="B181" t="n">
-        <v>9711.0</v>
+        <v>11445.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>19041.0</v>
+        <v>28757.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10505.0</v>
+        <v>11607.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>26362.0</v>
+        <v>27210.0</v>
       </c>
       <c r="B183" t="n">
-        <v>10514.0</v>
+        <v>12399.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>24170.0</v>
+        <v>25552.0</v>
       </c>
       <c r="B184" t="n">
-        <v>10499.0</v>
+        <v>12506.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25553.0</v>
+        <v>26889.0</v>
       </c>
       <c r="B185" t="n">
-        <v>10541.0</v>
+        <v>12705.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>26654.0</v>
+        <v>27786.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10611.0</v>
+        <v>12499.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>28723.0</v>
+        <v>29162.0</v>
       </c>
       <c r="B187" t="n">
-        <v>10980.0</v>
+        <v>13252.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>25397.0</v>
+        <v>33635.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12274.0</v>
+        <v>14003.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>22846.0</v>
+        <v>34678.0</v>
       </c>
       <c r="B189" t="n">
-        <v>13246.0</v>
+        <v>14029.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>30637.0</v>
+        <v>30213.0</v>
       </c>
       <c r="B190" t="n">
-        <v>12871.0</v>
+        <v>14579.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>27395.0</v>
+        <v>28421.0</v>
       </c>
       <c r="B191" t="n">
-        <v>12477.0</v>
+        <v>15141.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>28528.0</v>
+        <v>30007.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12367.0</v>
+        <v>14714.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>29756.0</v>
+        <v>30375.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12325.0</v>
+        <v>14415.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>31350.0</v>
+        <v>31183.0</v>
       </c>
       <c r="B194" t="n">
-        <v>12843.0</v>
+        <v>14960.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>27819.0</v>
+        <v>35715.0</v>
       </c>
       <c r="B195" t="n">
-        <v>14085.0</v>
+        <v>15147.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>24661.0</v>
+        <v>37246.0</v>
       </c>
       <c r="B196" t="n">
-        <v>14650.0</v>
+        <v>15483.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>32844.0</v>
+        <v>31250.0</v>
       </c>
       <c r="B197" t="n">
-        <v>14277.0</v>
+        <v>15768.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>28834.0</v>
+        <v>28617.0</v>
       </c>
       <c r="B198" t="n">
-        <v>13913.0</v>
+        <v>16096.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>29498.0</v>
+        <v>29863.0</v>
       </c>
       <c r="B199" t="n">
-        <v>13170.0</v>
+        <v>15215.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>29991.0</v>
+        <v>30446.0</v>
       </c>
       <c r="B200" t="n">
-        <v>12938.0</v>
+        <v>14834.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>31529.0</v>
+        <v>30926.0</v>
       </c>
       <c r="B201" t="n">
-        <v>13317.0</v>
+        <v>14988.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>27661.0</v>
+        <v>34796.0</v>
       </c>
       <c r="B202" t="n">
-        <v>14678.0</v>
+        <v>15175.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>24763.0</v>
+        <v>35854.0</v>
       </c>
       <c r="B203" t="n">
-        <v>14999.0</v>
+        <v>15492.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32286.0</v>
+        <v>30239.0</v>
       </c>
       <c r="B204" t="n">
-        <v>14608.0</v>
+        <v>15496.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>27970.0</v>
+        <v>27507.0</v>
       </c>
       <c r="B205" t="n">
-        <v>13750.0</v>
+        <v>15643.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28515.0</v>
+        <v>28534.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13247.0</v>
+        <v>14876.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20832.0</v>
+        <v>32223.0</v>
       </c>
       <c r="B207" t="n">
-        <v>12921.0</v>
+        <v>14313.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>29732.0</v>
+        <v>29105.0</v>
       </c>
       <c r="B208" t="n">
-        <v>12569.0</v>
+        <v>14028.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>22273.0</v>
+        <v>27644.0</v>
       </c>
       <c r="B209" t="n">
-        <v>13072.0</v>
+        <v>14676.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>19921.0</v>
+        <v>27448.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13171.0</v>
+        <v>14204.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>26110.0</v>
+        <v>26158.0</v>
       </c>
       <c r="B211" t="n">
-        <v>11993.0</v>
+        <v>13071.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22860.0</v>
+        <v>23096.0</v>
       </c>
       <c r="B212" t="n">
-        <v>11113.0</v>
+        <v>13064.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>23543.0</v>
+        <v>24395.0</v>
       </c>
       <c r="B213" t="n">
-        <v>11015.0</v>
+        <v>12451.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>24218.0</v>
+        <v>24782.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10576.0</v>
+        <v>12154.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>25127.0</v>
+        <v>25005.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10918.0</v>
+        <v>12312.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>21747.0</v>
+        <v>28136.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11681.0</v>
+        <v>12482.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19533.0</v>
+        <v>28642.0</v>
       </c>
       <c r="B217" t="n">
-        <v>12091.0</v>
+        <v>12429.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25838.0</v>
+        <v>24461.0</v>
       </c>
       <c r="B218" t="n">
-        <v>11441.0</v>
+        <v>12394.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22975.0</v>
+        <v>22453.0</v>
       </c>
       <c r="B219" t="n">
-        <v>11119.0</v>
+        <v>12634.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>16027.0</v>
+        <v>24522.0</v>
       </c>
       <c r="B220" t="n">
-        <v>10592.0</v>
+        <v>11727.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>22355.0</v>
+        <v>22701.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9629.0</v>
+        <v>10961.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>20625.0</v>
+        <v>20829.0</v>
       </c>
       <c r="B222" t="n">
-        <v>9553.0</v>
+        <v>11088.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>17338.0</v>
+        <v>22416.0</v>
       </c>
       <c r="B223" t="n">
-        <v>9997.0</v>
+        <v>11049.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>15284.0</v>
+        <v>21538.0</v>
       </c>
       <c r="B224" t="n">
-        <v>9978.0</v>
+        <v>10674.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>20943.0</v>
+        <v>20862.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9147.0</v>
+        <v>10149.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18567.0</v>
+        <v>19001.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8904.0</v>
+        <v>10341.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>19208.0</v>
+        <v>19282.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8877.0</v>
+        <v>9886.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>19362.0</v>
+        <v>19767.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8508.0</v>
+        <v>9499.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>19968.0</v>
+        <v>19698.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8473.0</v>
+        <v>9529.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>17340.0</v>
+        <v>22447.0</v>
       </c>
       <c r="B230" t="n">
-        <v>9083.0</v>
+        <v>9561.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15791.0</v>
+        <v>22325.0</v>
       </c>
       <c r="B231" t="n">
-        <v>9310.0</v>
+        <v>9704.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>20878.0</v>
+        <v>19856.0</v>
       </c>
       <c r="B232" t="n">
-        <v>9328.0</v>
+        <v>9760.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>18642.0</v>
+        <v>18416.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8746.0</v>
+        <v>9954.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15128.0</v>
+        <v>13791.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8524.0</v>
+        <v>9331.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>15193.0</v>
+        <v>13748.0</v>
       </c>
       <c r="B235" t="n">
-        <v>8036.0</v>
+        <v>8835.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>15006.0</v>
+        <v>13166.0</v>
       </c>
       <c r="B236" t="n">
-        <v>7926.0</v>
+        <v>8046.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>11868.0</v>
+        <v>18136.0</v>
       </c>
       <c r="B237" t="n">
-        <v>8227.0</v>
+        <v>7766.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11590.0</v>
+        <v>15869.0</v>
       </c>
       <c r="B238" t="n">
-        <v>7893.0</v>
+        <v>7275.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>12754.0</v>
+        <v>10812.0</v>
       </c>
       <c r="B239" t="n">
-        <v>7070.0</v>
+        <v>7207.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>10886.0</v>
+        <v>9699.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6431.0</v>
+        <v>6369.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10256.0</v>
+        <v>9212.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5817.0</v>
+        <v>5844.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9676.0</v>
+        <v>9022.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5316.0</v>
+        <v>5430.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9810.0</v>
+        <v>8642.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5206.0</v>
+        <v>5220.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8129.0</v>
+        <v>11111.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5158.0</v>
+        <v>4876.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>7852.0</v>
+        <v>9756.0</v>
       </c>
       <c r="B245" t="n">
-        <v>5034.0</v>
+        <v>4576.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10529.0</v>
+        <v>9413.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4814.0</v>
+        <v>4312.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9393.0</v>
+        <v>8512.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4441.0</v>
+        <v>4117.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9551.0</v>
+        <v>8608.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4182.0</v>
+        <v>3927.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9550.0</v>
+        <v>9041.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4100.0</v>
+        <v>3957.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10071.0</v>
+        <v>9494.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4274.0</v>
+        <v>4304.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8509.0</v>
+        <v>10867.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4430.0</v>
+        <v>4259.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8296.0</v>
+        <v>10074.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4766.0</v>
+        <v>4385.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11336.0</v>
+        <v>10500.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4742.0</v>
+        <v>4380.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10425.0</v>
+        <v>9537.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4497.0</v>
+        <v>4434.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10236.0</v>
+        <v>9827.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4521.0</v>
+        <v>4337.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10447.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B256" t="n">
-        <v>4239.0</v>
+        <v>4316.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>10788.0</v>
+        <v>10343.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4369.0</v>
+        <v>4449.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9233.0</v>
+        <v>11557.0</v>
       </c>
       <c r="B258" t="n">
-        <v>4694.0</v>
+        <v>4731.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8598.0</v>
+        <v>11375.0</v>
       </c>
       <c r="B259" t="n">
-        <v>5183.0</v>
+        <v>4755.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>11876.0</v>
+        <v>11111.0</v>
       </c>
       <c r="B260" t="n">
-        <v>4991.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>10909.0</v>
+        <v>10654.0</v>
       </c>
       <c r="B261" t="n">
-        <v>4955.0</v>
+        <v>4777.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>11059.0</v>
+        <v>10660.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4539.0</v>
+        <v>4901.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11263.0</v>
+        <v>10865.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4630.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>11461.0</v>
+        <v>11195.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4600.0</v>
+        <v>4925.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10054.0</v>
+        <v>11918.0</v>
       </c>
       <c r="B265" t="n">
-        <v>4993.0</v>
+        <v>4995.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>8993.0</v>
+        <v>12044.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5335.0</v>
+        <v>5159.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>12962.0</v>
+        <v>11922.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5362.0</v>
+        <v>5181.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>11679.0</v>
+        <v>11129.0</v>
       </c>
       <c r="B268" t="n">
         <v>5215.0</v>
@@ -2490,778 +2490,778 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>11600.0</v>
+        <v>11139.0</v>
       </c>
       <c r="B269" t="n">
-        <v>5070.0</v>
+        <v>5059.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>12024.0</v>
+        <v>11634.0</v>
       </c>
       <c r="B270" t="n">
-        <v>5040.0</v>
+        <v>5053.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>12247.0</v>
+        <v>11506.0</v>
       </c>
       <c r="B271" t="n">
-        <v>5042.0</v>
+        <v>5279.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>10458.0</v>
+        <v>12327.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5293.0</v>
+        <v>5346.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9415.0</v>
+        <v>12531.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5700.0</v>
+        <v>5293.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9279.0</v>
+        <v>11599.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5669.0</v>
+        <v>5352.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>12454.0</v>
+        <v>11799.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5509.0</v>
+        <v>5175.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10580.0</v>
+        <v>10629.0</v>
       </c>
       <c r="B276" t="n">
-        <v>4984.0</v>
+        <v>5308.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>10368.0</v>
+        <v>10965.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4761.0</v>
+        <v>5030.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>10504.0</v>
+        <v>11232.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4643.0</v>
+        <v>4945.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8756.0</v>
+        <v>11110.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4578.0</v>
+        <v>5047.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8144.0</v>
+        <v>11024.0</v>
       </c>
       <c r="B280" t="n">
-        <v>4918.0</v>
+        <v>5102.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>11678.0</v>
+        <v>12296.0</v>
       </c>
       <c r="B281" t="n">
-        <v>4987.0</v>
+        <v>5102.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7330.0</v>
+        <v>10325.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4882.0</v>
+        <v>5150.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>10606.0</v>
+        <v>11522.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4599.0</v>
+        <v>5103.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>10000.0</v>
+        <v>10761.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4434.0</v>
+        <v>4817.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>9812.0</v>
+        <v>11046.0</v>
       </c>
       <c r="B285" t="n">
-        <v>4198.0</v>
+        <v>4879.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8232.0</v>
+        <v>11349.0</v>
       </c>
       <c r="B286" t="n">
-        <v>4392.0</v>
+        <v>5106.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7598.0</v>
+        <v>11004.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4513.0</v>
+        <v>5139.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>10522.0</v>
+        <v>11689.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4516.0</v>
+        <v>4994.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>9784.0</v>
+        <v>10868.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4337.0</v>
+        <v>4989.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>9732.0</v>
+        <v>11049.0</v>
       </c>
       <c r="B290" t="n">
-        <v>4390.0</v>
+        <v>5012.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10049.0</v>
+        <v>11510.0</v>
       </c>
       <c r="B291" t="n">
-        <v>4351.0</v>
+        <v>5016.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>10366.0</v>
+        <v>11436.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4336.0</v>
+        <v>4987.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>8938.0</v>
+        <v>12317.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4372.0</v>
+        <v>5105.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8212.0</v>
+        <v>12347.0</v>
       </c>
       <c r="B294" t="n">
-        <v>4627.0</v>
+        <v>5270.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>11304.0</v>
+        <v>12218.0</v>
       </c>
       <c r="B295" t="n">
-        <v>4784.0</v>
+        <v>5391.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>10451.0</v>
+        <v>11534.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4612.0</v>
+        <v>5307.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>10259.0</v>
+        <v>11375.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4466.0</v>
+        <v>5335.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>10364.0</v>
+        <v>11692.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4644.0</v>
+        <v>5211.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>10939.0</v>
+        <v>11720.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4553.0</v>
+        <v>5089.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9195.0</v>
+        <v>12424.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4617.0</v>
+        <v>5153.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8513.0</v>
+        <v>12669.0</v>
       </c>
       <c r="B301" t="n">
-        <v>4861.0</v>
+        <v>5515.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>12042.0</v>
+        <v>12544.0</v>
       </c>
       <c r="B302" t="n">
-        <v>5082.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>10647.0</v>
+        <v>11371.0</v>
       </c>
       <c r="B303" t="n">
-        <v>4864.0</v>
+        <v>5384.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>10552.0</v>
+        <v>11605.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4672.0</v>
+        <v>5606.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>8996.0</v>
+        <v>9106.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4649.0</v>
+        <v>5199.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9226.0</v>
+        <v>9203.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4719.0</v>
+        <v>5203.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7453.0</v>
+        <v>12354.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4601.0</v>
+        <v>5009.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7483.0</v>
+        <v>10765.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4788.0</v>
+        <v>4852.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8612.0</v>
+        <v>8223.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4364.0</v>
+        <v>4692.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7418.0</v>
+        <v>7515.0</v>
       </c>
       <c r="B310" t="n">
-        <v>3991.0</v>
+        <v>4630.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7099.0</v>
+        <v>7287.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3767.0</v>
+        <v>4395.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>6931.0</v>
+        <v>7251.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3539.0</v>
+        <v>3851.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7073.0</v>
+        <v>7053.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3283.0</v>
+        <v>3567.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5429.0</v>
+        <v>8152.0</v>
       </c>
       <c r="B314" t="n">
-        <v>3275.0</v>
+        <v>3399.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5767.0</v>
+        <v>7757.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3304.0</v>
+        <v>3343.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5438.0</v>
+        <v>6842.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3318.0</v>
+        <v>3267.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6115.0</v>
+        <v>5999.0</v>
       </c>
       <c r="B317" t="n">
-        <v>3016.0</v>
+        <v>3198.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5528.0</v>
+        <v>5541.0</v>
       </c>
       <c r="B318" t="n">
-        <v>2796.0</v>
+        <v>3089.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5360.0</v>
+        <v>5607.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2646.0</v>
+        <v>2995.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5599.0</v>
+        <v>5669.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2517.0</v>
+        <v>2692.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4255.0</v>
+        <v>6143.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2462.0</v>
+        <v>2573.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4639.0</v>
+        <v>5868.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2464.0</v>
+        <v>2579.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5474.0</v>
+        <v>5625.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2522.0</v>
+        <v>2578.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>4984.0</v>
+        <v>5015.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2362.0</v>
+        <v>2563.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5257.0</v>
+        <v>5066.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2323.0</v>
+        <v>2492.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5355.0</v>
+        <v>5153.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2362.0</v>
+        <v>2331.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5424.0</v>
+        <v>5208.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2197.0</v>
+        <v>2328.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4360.0</v>
+        <v>5997.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2305.0</v>
+        <v>2238.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4611.0</v>
+        <v>5774.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2319.0</v>
+        <v>2377.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5671.0</v>
+        <v>5043.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2438.0</v>
+        <v>2367.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5096.0</v>
+        <v>4790.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2217.0</v>
+        <v>2432.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5287.0</v>
+        <v>4869.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2325.0</v>
+        <v>2346.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5420.0</v>
+        <v>4819.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2317.0</v>
+        <v>2214.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5534.0</v>
+        <v>4766.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2184.0</v>
+        <v>2078.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4668.0</v>
+        <v>5454.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2326.0</v>
+        <v>1941.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4621.0</v>
+        <v>5305.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2468.0</v>
+        <v>2032.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4479.0</v>
+        <v>3736.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2482.0</v>
+        <v>2166.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4029.0</v>
+        <v>3558.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2307.0</v>
+        <v>2144.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3819.0</v>
+        <v>3282.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2238.0</v>
+        <v>2120.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3686.0</v>
+        <v>3226.0</v>
       </c>
       <c r="B340" t="n">
-        <v>2051.0</v>
+        <v>1772.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3379.0</v>
+        <v>3045.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1863.0</v>
+        <v>1496.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3216.0</v>
+        <v>3571.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1699.0</v>
+        <v>1455.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>3016.0</v>
+        <v>3209.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1583.0</v>
+        <v>1375.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2892.0</v>
+        <v>2655.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1527.0</v>
+        <v>1284.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2802.0</v>
+        <v>2539.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1411.0</v>
+        <v>1309.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2760.0</v>
+        <v>2442.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1312.0</v>
+        <v>1233.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2686.0</v>
+        <v>2377.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1326.0</v>
+        <v>1122.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2612.0</v>
+        <v>2364.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1327.0</v>
+        <v>1140.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2616.0</v>
+        <v>2785.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1252.0</v>
+        <v>1068.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2439.0</v>
+        <v>2580.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1207.0</v>
+        <v>1016.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2563.0</v>
+        <v>2159.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1187.0</v>
+        <v>915.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2517.0</v>
+        <v>2179.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1180.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2535.0</v>
+        <v>2073.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1093.0</v>
+        <v>921.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2633.0</v>
+        <v>2160.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1079.0</v>
+        <v>937.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2622.0</v>
+        <v>2183.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1108.0</v>
+        <v>859.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2482.0</v>
+        <v>2601.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1129.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2587.0</v>
+        <v>2466.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1104.0</v>
+        <v>928.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2500.0</v>
+        <v>2052.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1043.0</v>
+        <v>911.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2544.0</v>
+        <v>2062.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1074.0</v>
+        <v>860.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2492.0</v>
+        <v>2118.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1051.0</v>
+        <v>918.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2459.0</v>
+        <v>1971.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1041.0</v>
+        <v>805.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2587.0</v>
+        <v>2030.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1131.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2512.0</v>
+        <v>2220.0</v>
       </c>
       <c r="B363" t="n">
-        <v>1047.0</v>
+        <v>854.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2432.0</v>
+        <v>2017.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1062.0</v>
+        <v>867.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2524.0</v>
+        <v>1796.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1027.0</v>
+        <v>873.0</v>
       </c>
     </row>
   </sheetData>
